--- a/ultralytics/CarDetection/Output.xlsx
+++ b/ultralytics/CarDetection/Output.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AWORK\FYP\SmartParkingVehicleFYP\ultralytics\CarDetection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X\Desktop\LeeWeeYan\SmartParkingVehicleFYP\ultralytics\CarDetection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B08AF7C0-07D7-4B3F-A7D6-A8054A8849CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{165B3765-015F-4744-BAA8-B6512AFA4461}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="27-09-2023 15-25-55" sheetId="4" r:id="rId1"/>
+    <sheet name="27-09-2023 15-22-30" sheetId="3" r:id="rId2"/>
+    <sheet name="27-09-2023 15-20-22" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,8 +37,211 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="66">
+  <si>
+    <t>carId</t>
+  </si>
+  <si>
+    <t>carPlate</t>
+  </si>
+  <si>
+    <t>bbox</t>
+  </si>
+  <si>
+    <t>entryTime</t>
+  </si>
+  <si>
+    <t>exitTime</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>currentLocation</t>
+  </si>
+  <si>
+    <t>parkingLot</t>
+  </si>
+  <si>
+    <t>parkingDetected</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>isDoubleParked</t>
+  </si>
+  <si>
+    <t>doubleParkingLot</t>
+  </si>
+  <si>
+    <t>isDoubleParking</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>27-09-2023 15:21:15</t>
+  </si>
+  <si>
+    <t>moving</t>
+  </si>
+  <si>
+    <t>RightCam</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>27-09-2023 15:21:17</t>
+  </si>
+  <si>
+    <t>MiddleCam</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>LeftCam</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>27-09-2023 15:21:24</t>
+  </si>
+  <si>
+    <t>parked</t>
+  </si>
+  <si>
+    <t>27-09-2023 15:21:36</t>
+  </si>
+  <si>
+    <t>27-09-2023 15:21:40</t>
+  </si>
+  <si>
+    <t>27-09-2023 15:21:53</t>
+  </si>
+  <si>
+    <t>27-09-2023 15:23:33</t>
+  </si>
+  <si>
+    <t>27-09-2023 15:23:34</t>
+  </si>
+  <si>
+    <t>27-09-2023 15:23:42</t>
+  </si>
+  <si>
+    <t>27-09-2023 15:23:54</t>
+  </si>
+  <si>
+    <t>27-09-2023 15:23:59</t>
+  </si>
+  <si>
+    <t>27-09-2023 15:24:12</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>27-09-2023 15:24:24</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>27-09-2023 15:24:40</t>
+  </si>
+  <si>
+    <t>27-09-2023 15:24:44</t>
+  </si>
+  <si>
+    <t>27-09-2023 15:24:58</t>
+  </si>
+  <si>
+    <t>27-09-2023 15:24:51</t>
+  </si>
+  <si>
+    <t>27-09-2023 15:25:12</t>
+  </si>
+  <si>
+    <t>27-09-2023 15:26:59</t>
+  </si>
+  <si>
+    <t>27-09-2023 15:27:00</t>
+  </si>
+  <si>
+    <t>27-09-2023 15:27:09</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,8 +271,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,12 +587,5110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA85C4E-8E2C-44E1-B96D-64943287683C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45196.643750000003</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1">
+        <v>45196.643750000003</v>
+      </c>
+      <c r="J8">
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1">
+        <v>45196.643750000003</v>
+      </c>
+      <c r="J10">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="1">
+        <v>45196.643750000003</v>
+      </c>
+      <c r="J13">
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="1">
+        <v>45196.643750000003</v>
+      </c>
+      <c r="J14">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="1">
+        <v>45196.643750000003</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="1">
+        <v>45196.643761574072</v>
+      </c>
+      <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="1">
+        <v>45196.643761574072</v>
+      </c>
+      <c r="J17">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="1">
+        <v>45196.643761574072</v>
+      </c>
+      <c r="J18">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="1">
+        <v>45196.643761574072</v>
+      </c>
+      <c r="J19">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="1">
+        <v>45196.643761574072</v>
+      </c>
+      <c r="J20">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="1">
+        <v>45196.643761574072</v>
+      </c>
+      <c r="J21">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="1">
+        <v>45196.643761574072</v>
+      </c>
+      <c r="J22">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="1">
+        <v>45196.643761574072</v>
+      </c>
+      <c r="J23">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="1">
+        <v>45196.643761574072</v>
+      </c>
+      <c r="J24">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="1">
+        <v>45196.643761574072</v>
+      </c>
+      <c r="J25">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="1">
+        <v>45196.643761574072</v>
+      </c>
+      <c r="J26">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="1">
+        <v>45196.643761574072</v>
+      </c>
+      <c r="J27">
+        <v>14</v>
+      </c>
+      <c r="K27" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="1">
+        <v>45196.643761574072</v>
+      </c>
+      <c r="J28">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" t="s">
+        <v>13</v>
+      </c>
+      <c r="M28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="1">
+        <v>45196.643761574072</v>
+      </c>
+      <c r="J29">
+        <v>14</v>
+      </c>
+      <c r="K29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="1">
+        <v>45196.643761574072</v>
+      </c>
+      <c r="J30">
+        <v>14</v>
+      </c>
+      <c r="K30" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" t="s">
+        <v>13</v>
+      </c>
+      <c r="M30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="1">
+        <v>45196.643761574072</v>
+      </c>
+      <c r="J31">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="1">
+        <v>45196.643761574072</v>
+      </c>
+      <c r="J32">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" t="s">
+        <v>13</v>
+      </c>
+      <c r="M36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" t="s">
+        <v>13</v>
+      </c>
+      <c r="M38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" t="s">
+        <v>13</v>
+      </c>
+      <c r="M39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45196.64135416667</v>
+      </c>
+      <c r="J2">
+        <v>120</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1">
+        <v>45196.64135416667</v>
+      </c>
+      <c r="J8">
+        <v>120</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1">
+        <v>45196.64135416667</v>
+      </c>
+      <c r="J10">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="1">
+        <v>45196.64135416667</v>
+      </c>
+      <c r="J13">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="1">
+        <v>45196.64135416667</v>
+      </c>
+      <c r="J14">
+        <v>120</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="1">
+        <v>45196.64135416667</v>
+      </c>
+      <c r="J15">
+        <v>120</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="1">
+        <v>45196.641377314816</v>
+      </c>
+      <c r="J16">
+        <v>119</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="1">
+        <v>45196.641377314816</v>
+      </c>
+      <c r="J17">
+        <v>119</v>
+      </c>
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="1">
+        <v>45196.641377314816</v>
+      </c>
+      <c r="J18">
+        <v>119</v>
+      </c>
+      <c r="K18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="1">
+        <v>45196.641377314816</v>
+      </c>
+      <c r="J19">
+        <v>119</v>
+      </c>
+      <c r="K19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="1">
+        <v>45196.641377314816</v>
+      </c>
+      <c r="J20">
+        <v>119</v>
+      </c>
+      <c r="K20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="1">
+        <v>45196.641377314816</v>
+      </c>
+      <c r="J21">
+        <v>119</v>
+      </c>
+      <c r="K21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="1">
+        <v>45196.641377314816</v>
+      </c>
+      <c r="J22">
+        <v>119</v>
+      </c>
+      <c r="K22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="1">
+        <v>45196.641377314816</v>
+      </c>
+      <c r="J23">
+        <v>119</v>
+      </c>
+      <c r="K23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="1">
+        <v>45196.641377314816</v>
+      </c>
+      <c r="J24">
+        <v>119</v>
+      </c>
+      <c r="K24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="1">
+        <v>45196.641377314816</v>
+      </c>
+      <c r="J25">
+        <v>119</v>
+      </c>
+      <c r="K25" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="1">
+        <v>45196.641377314816</v>
+      </c>
+      <c r="J26">
+        <v>119</v>
+      </c>
+      <c r="K26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="1">
+        <v>45196.641377314816</v>
+      </c>
+      <c r="J27">
+        <v>119</v>
+      </c>
+      <c r="K27" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="1">
+        <v>45196.641377314816</v>
+      </c>
+      <c r="J28">
+        <v>119</v>
+      </c>
+      <c r="K28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" t="s">
+        <v>13</v>
+      </c>
+      <c r="M28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="1">
+        <v>45196.641377314816</v>
+      </c>
+      <c r="J29">
+        <v>119</v>
+      </c>
+      <c r="K29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="1">
+        <v>45196.641377314816</v>
+      </c>
+      <c r="J30">
+        <v>119</v>
+      </c>
+      <c r="K30" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" t="s">
+        <v>13</v>
+      </c>
+      <c r="M30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="1">
+        <v>45196.641377314816</v>
+      </c>
+      <c r="J31">
+        <v>119</v>
+      </c>
+      <c r="K31" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="1">
+        <v>45196.641377314816</v>
+      </c>
+      <c r="J32">
+        <v>119</v>
+      </c>
+      <c r="K32" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" t="s">
+        <v>13</v>
+      </c>
+      <c r="M36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" t="s">
+        <v>13</v>
+      </c>
+      <c r="M38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" t="s">
+        <v>13</v>
+      </c>
+      <c r="M39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" t="s">
+        <v>13</v>
+      </c>
+      <c r="M40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" t="s">
+        <v>13</v>
+      </c>
+      <c r="M41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" t="s">
+        <v>13</v>
+      </c>
+      <c r="M42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" t="s">
+        <v>13</v>
+      </c>
+      <c r="M43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" t="s">
+        <v>13</v>
+      </c>
+      <c r="M44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" t="s">
+        <v>13</v>
+      </c>
+      <c r="M45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" s="1">
+        <v>45196.642210648148</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" t="s">
+        <v>13</v>
+      </c>
+      <c r="M46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" t="s">
+        <v>13</v>
+      </c>
+      <c r="M47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" t="s">
+        <v>13</v>
+      </c>
+      <c r="M48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" t="s">
+        <v>13</v>
+      </c>
+      <c r="M49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" t="s">
+        <v>13</v>
+      </c>
+      <c r="M50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" t="s">
+        <v>13</v>
+      </c>
+      <c r="M51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45196.639768518522</v>
+      </c>
+      <c r="J2">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1">
+        <v>45196.639768518522</v>
+      </c>
+      <c r="J8">
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1">
+        <v>45196.639768518522</v>
+      </c>
+      <c r="J10">
+        <v>46</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="1">
+        <v>45196.639768518522</v>
+      </c>
+      <c r="J13">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="1">
+        <v>45196.639768518522</v>
+      </c>
+      <c r="J14">
+        <v>46</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="1">
+        <v>45196.639768518522</v>
+      </c>
+      <c r="J15">
+        <v>46</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="1">
+        <v>45196.639780092592</v>
+      </c>
+      <c r="J16">
+        <v>45</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="1">
+        <v>45196.639780092592</v>
+      </c>
+      <c r="J17">
+        <v>45</v>
+      </c>
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="1">
+        <v>45196.639780092592</v>
+      </c>
+      <c r="J18">
+        <v>45</v>
+      </c>
+      <c r="K18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="1">
+        <v>45196.639780092592</v>
+      </c>
+      <c r="J19">
+        <v>45</v>
+      </c>
+      <c r="K19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="1">
+        <v>45196.639780092592</v>
+      </c>
+      <c r="J20">
+        <v>45</v>
+      </c>
+      <c r="K20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="1">
+        <v>45196.639780092592</v>
+      </c>
+      <c r="J21">
+        <v>45</v>
+      </c>
+      <c r="K21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="1">
+        <v>45196.639780092592</v>
+      </c>
+      <c r="J22">
+        <v>45</v>
+      </c>
+      <c r="K22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="1">
+        <v>45196.639780092592</v>
+      </c>
+      <c r="J23">
+        <v>45</v>
+      </c>
+      <c r="K23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="1">
+        <v>45196.639780092592</v>
+      </c>
+      <c r="J24">
+        <v>45</v>
+      </c>
+      <c r="K24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="1">
+        <v>45196.639780092592</v>
+      </c>
+      <c r="J25">
+        <v>45</v>
+      </c>
+      <c r="K25" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="1">
+        <v>45196.639780092592</v>
+      </c>
+      <c r="J26">
+        <v>45</v>
+      </c>
+      <c r="K26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="1">
+        <v>45196.639780092592</v>
+      </c>
+      <c r="J27">
+        <v>45</v>
+      </c>
+      <c r="K27" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="1">
+        <v>45196.639780092592</v>
+      </c>
+      <c r="J28">
+        <v>45</v>
+      </c>
+      <c r="K28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" t="s">
+        <v>13</v>
+      </c>
+      <c r="M28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="1">
+        <v>45196.639780092592</v>
+      </c>
+      <c r="J29">
+        <v>45</v>
+      </c>
+      <c r="K29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="1">
+        <v>45196.639780092592</v>
+      </c>
+      <c r="J30">
+        <v>45</v>
+      </c>
+      <c r="K30" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" t="s">
+        <v>13</v>
+      </c>
+      <c r="M30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="1">
+        <v>45196.639780092592</v>
+      </c>
+      <c r="J31">
+        <v>45</v>
+      </c>
+      <c r="K31" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="1">
+        <v>45196.639780092592</v>
+      </c>
+      <c r="J32">
+        <v>45</v>
+      </c>
+      <c r="K32" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" t="s">
+        <v>13</v>
+      </c>
+      <c r="M36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" t="s">
+        <v>13</v>
+      </c>
+      <c r="M38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" t="s">
+        <v>13</v>
+      </c>
+      <c r="M39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" t="s">
+        <v>13</v>
+      </c>
+      <c r="M40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" t="s">
+        <v>13</v>
+      </c>
+      <c r="M41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" t="s">
+        <v>13</v>
+      </c>
+      <c r="M42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
